--- a/college13.xlsx
+++ b/college13.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="85">
   <si>
     <t>Name</t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>total_experience</t>
-  </si>
-  <si>
-    <t>Top skills</t>
   </si>
   <si>
     <t>Remarks</t>
@@ -274,45 +271,6 @@
   </si>
   <si>
     <t>3 year 9 months</t>
-  </si>
-  <si>
-    <t>Merchandising,Sourcing,Operations,Scheduling,Recruitment</t>
-  </si>
-  <si>
-    <t>Opencv,Windows,Database,Linux,Python</t>
-  </si>
-  <si>
-    <t>Tax,Accounting,Compliance,Audit,Finance</t>
-  </si>
-  <si>
-    <t>Algorithms,Django,Opencv,Php,Python</t>
-  </si>
-  <si>
-    <t>C,Hive,Partnership,Regulatory,Banking</t>
-  </si>
-  <si>
-    <t>Linux,Java,Python,Mysql,Php</t>
-  </si>
-  <si>
-    <t>Accounting,Banking,Presentations,Forecasts,Research</t>
-  </si>
-  <si>
-    <t>Mis,Operations,Negotiation,Reporting,Finance</t>
-  </si>
-  <si>
-    <t>Celery,Java,Python,Sql,Django</t>
-  </si>
-  <si>
-    <t>Budgeting,Finance,Litigation,Tax,Legal</t>
-  </si>
-  <si>
-    <t>Testing,Windows,Sql,Machine,Python</t>
-  </si>
-  <si>
-    <t>Testing,Threading,Banking,Database,Java</t>
-  </si>
-  <si>
-    <t>Css,Html,Sql,Java,Jsp</t>
   </si>
 </sst>
 </file>
@@ -684,7 +642,7 @@
     <col min="6" max="12" width="33.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:9">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -709,367 +667,325 @@
       <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="2">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="2">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="2">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="2">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="2">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="2">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="2">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
